--- a/db1_slovar.xlsx
+++ b/db1_slovar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Pictures\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6EB86B-04C2-4003-9CCB-7E1BC00E6BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29D7BE-FABD-44C6-ADB4-07776AF82E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{516825FC-D7CB-4046-9F47-990116401B70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{516825FC-D7CB-4046-9F47-990116401B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1163,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1319,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312F9FA8-A8F8-4A60-BDF2-F5268AFD5C88}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -1512,7 +1512,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>79</v>
@@ -1538,7 +1538,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>80</v>
@@ -1728,7 +1728,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>87</v>
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>68</v>
@@ -1915,7 +1915,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>87</v>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E414B26D-A885-4E5B-B401-71B822704FAE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2063,7 +2063,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
